--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H2">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I2">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J2">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N2">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O2">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P2">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q2">
-        <v>7.102256072625</v>
+        <v>3.36492193801525</v>
       </c>
       <c r="R2">
-        <v>28.4090242905</v>
+        <v>13.459687752061</v>
       </c>
       <c r="S2">
-        <v>0.006843456062393459</v>
+        <v>0.005840476089148209</v>
       </c>
       <c r="T2">
-        <v>0.004317209781106494</v>
+        <v>0.003360276956227511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H3">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I3">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J3">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P3">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q3">
-        <v>14.4710924505</v>
+        <v>9.107033825448999</v>
       </c>
       <c r="R3">
-        <v>86.826554703</v>
+        <v>54.642202952694</v>
       </c>
       <c r="S3">
-        <v>0.01394377847646769</v>
+        <v>0.01580702740818167</v>
       </c>
       <c r="T3">
-        <v>0.01319469642429498</v>
+        <v>0.0136416935371572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H4">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I4">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J4">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N4">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O4">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P4">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q4">
-        <v>29.5096706495</v>
+        <v>16.67111875915483</v>
       </c>
       <c r="R4">
-        <v>177.058023897</v>
+        <v>100.026712554929</v>
       </c>
       <c r="S4">
-        <v>0.02843436401623786</v>
+        <v>0.02893596709991573</v>
       </c>
       <c r="T4">
-        <v>0.02690682456303613</v>
+        <v>0.02497215859662519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H5">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I5">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J5">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N5">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O5">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P5">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q5">
-        <v>12.255769684125</v>
+        <v>8.30323446405375</v>
       </c>
       <c r="R5">
-        <v>49.0230787365</v>
+        <v>33.212937856215</v>
       </c>
       <c r="S5">
-        <v>0.01180918013747765</v>
+        <v>0.01441187737582443</v>
       </c>
       <c r="T5">
-        <v>0.007449848078448266</v>
+        <v>0.008291772571749761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H6">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I6">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J6">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N6">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O6">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P6">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q6">
-        <v>4.23160541675</v>
+        <v>3.5130149259265</v>
       </c>
       <c r="R6">
-        <v>25.3896325005</v>
+        <v>21.078089555559</v>
       </c>
       <c r="S6">
-        <v>0.004077409410023087</v>
+        <v>0.006097520255639732</v>
       </c>
       <c r="T6">
-        <v>0.003858364463664892</v>
+        <v>0.005262248271992728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.47325</v>
+        <v>0.2978285</v>
       </c>
       <c r="H7">
-        <v>0.9465</v>
+        <v>0.595657</v>
       </c>
       <c r="I7">
-        <v>0.09772214985838808</v>
+        <v>0.1008873944038486</v>
       </c>
       <c r="J7">
-        <v>0.0865888309464914</v>
+        <v>0.08124125744412947</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N7">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O7">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P7">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q7">
-        <v>33.84732886725</v>
+        <v>17.16576752120833</v>
       </c>
       <c r="R7">
-        <v>203.0839732035</v>
+        <v>102.99460512725</v>
       </c>
       <c r="S7">
-        <v>0.03261396175578833</v>
+        <v>0.02979452617513882</v>
       </c>
       <c r="T7">
-        <v>0.03086188763594064</v>
+        <v>0.02571310751037708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.48319</v>
       </c>
       <c r="I8">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J8">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N8">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O8">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P8">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q8">
-        <v>7.419612737705</v>
+        <v>5.585785744978333</v>
       </c>
       <c r="R8">
-        <v>44.51767642623</v>
+        <v>33.51471446987</v>
       </c>
       <c r="S8">
-        <v>0.007149248527685405</v>
+        <v>0.009695216912489046</v>
       </c>
       <c r="T8">
-        <v>0.006765179477273471</v>
+        <v>0.00836711258107784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.48319</v>
       </c>
       <c r="I9">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J9">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P9">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q9">
         <v>15.11771763455333</v>
@@ -1013,10 +1013,10 @@
         <v>136.05945871098</v>
       </c>
       <c r="S9">
-        <v>0.01456684120338941</v>
+        <v>0.02623973750166171</v>
       </c>
       <c r="T9">
-        <v>0.02067643083946125</v>
+        <v>0.0339679101183671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.48319</v>
       </c>
       <c r="I10">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J10">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N10">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O10">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P10">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q10">
-        <v>30.82827850722444</v>
+        <v>27.67413308038111</v>
       </c>
       <c r="R10">
-        <v>277.45450656502</v>
+        <v>249.06719772343</v>
       </c>
       <c r="S10">
-        <v>0.02970492295491729</v>
+        <v>0.04803383719481067</v>
       </c>
       <c r="T10">
-        <v>0.04216369056909621</v>
+        <v>0.06218084553514611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.48319</v>
       </c>
       <c r="I11">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J11">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N11">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O11">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P11">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q11">
-        <v>12.803405555765</v>
+        <v>13.783407033175</v>
       </c>
       <c r="R11">
-        <v>76.82043333458999</v>
+        <v>82.70044219905</v>
       </c>
       <c r="S11">
-        <v>0.01233686063610176</v>
+        <v>0.02392378209276931</v>
       </c>
       <c r="T11">
-        <v>0.01167410477704563</v>
+        <v>0.02064657035960885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.48319</v>
       </c>
       <c r="I12">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J12">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N12">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O12">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P12">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q12">
-        <v>4.420690148314445</v>
+        <v>5.831620779503333</v>
       </c>
       <c r="R12">
-        <v>39.78621133483</v>
+        <v>52.48458701553</v>
       </c>
       <c r="S12">
-        <v>0.004259604059061202</v>
+        <v>0.01012191139975108</v>
       </c>
       <c r="T12">
-        <v>0.006046156987705368</v>
+        <v>0.01310303415310639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.48319</v>
       </c>
       <c r="I13">
-        <v>0.1020887589001321</v>
+        <v>0.1674735342720662</v>
       </c>
       <c r="J13">
-        <v>0.1356869394310899</v>
+        <v>0.2022912861404439</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N13">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O13">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P13">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q13">
-        <v>35.35976031175667</v>
+        <v>28.49525227861111</v>
       </c>
       <c r="R13">
-        <v>318.23784280581</v>
+        <v>256.4572705075</v>
       </c>
       <c r="S13">
-        <v>0.03407128151897706</v>
+        <v>0.04945904917058434</v>
       </c>
       <c r="T13">
-        <v>0.04836137678050798</v>
+        <v>0.06402581339313763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H14">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I14">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J14">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N14">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O14">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P14">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q14">
-        <v>2.4759872864335</v>
+        <v>0.9541544462980002</v>
       </c>
       <c r="R14">
-        <v>14.855923718601</v>
+        <v>5.724926677788001</v>
       </c>
       <c r="S14">
-        <v>0.002385764471526557</v>
+        <v>0.001656120507878677</v>
       </c>
       <c r="T14">
-        <v>0.002257597393331222</v>
+        <v>0.001429255978729332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H15">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I15">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J15">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P15">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q15">
-        <v>5.044909752880666</v>
+        <v>2.582382883528</v>
       </c>
       <c r="R15">
-        <v>45.404187775926</v>
+        <v>23.241445951752</v>
       </c>
       <c r="S15">
-        <v>0.004861077646249771</v>
+        <v>0.004482227451958957</v>
       </c>
       <c r="T15">
-        <v>0.006899899185730664</v>
+        <v>0.005802340789749807</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H16">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I16">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J16">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N16">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O16">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P16">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q16">
-        <v>10.28765628947489</v>
+        <v>4.727248471681333</v>
       </c>
       <c r="R16">
-        <v>92.58890660527399</v>
+        <v>42.545236245132</v>
       </c>
       <c r="S16">
-        <v>0.009912783076547966</v>
+        <v>0.008205058594197949</v>
       </c>
       <c r="T16">
-        <v>0.0140703788039603</v>
+        <v>0.01062162656261334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H17">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I17">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J17">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N17">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O17">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P17">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q17">
-        <v>4.272604312355499</v>
+        <v>2.35445820987</v>
       </c>
       <c r="R17">
-        <v>25.635625874133</v>
+        <v>14.12674925922</v>
       </c>
       <c r="S17">
-        <v>0.004116914341669291</v>
+        <v>0.004086619877356011</v>
       </c>
       <c r="T17">
-        <v>0.003895747127281779</v>
+        <v>0.003526812127933077</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H18">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I18">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J18">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N18">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O18">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P18">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q18">
-        <v>1.475221550157889</v>
+        <v>0.9961475699080002</v>
       </c>
       <c r="R18">
-        <v>13.276993951421</v>
+        <v>8.965328129172002</v>
       </c>
       <c r="S18">
-        <v>0.001421465764901677</v>
+        <v>0.001729007736429813</v>
       </c>
       <c r="T18">
-        <v>0.002017653530252857</v>
+        <v>0.00223823806855118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1649843333333333</v>
+        <v>0.08445200000000001</v>
       </c>
       <c r="H19">
-        <v>0.494953</v>
+        <v>0.253356</v>
       </c>
       <c r="I19">
-        <v>0.03406787902015055</v>
+        <v>0.02860754505426385</v>
       </c>
       <c r="J19">
-        <v>0.04527987495346936</v>
+        <v>0.03455505437024138</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N19">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O19">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P19">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q19">
-        <v>11.79984994881633</v>
+        <v>4.867510660333334</v>
       </c>
       <c r="R19">
-        <v>106.198649539347</v>
+        <v>43.80759594300001</v>
       </c>
       <c r="S19">
-        <v>0.01136987371925529</v>
+        <v>0.008448510886442445</v>
       </c>
       <c r="T19">
-        <v>0.01613859891291255</v>
+        <v>0.01093678084266465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H20">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I20">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J20">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N20">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O20">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P20">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q20">
-        <v>46.8863707468275</v>
+        <v>13.85705062035925</v>
       </c>
       <c r="R20">
-        <v>187.54548298731</v>
+        <v>55.428202481437</v>
       </c>
       <c r="S20">
-        <v>0.04517787233379942</v>
+        <v>0.02405160485299726</v>
       </c>
       <c r="T20">
-        <v>0.02850056324623269</v>
+        <v>0.01383792216836274</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H21">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I21">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J21">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P21">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q21">
-        <v>95.53260243050998</v>
+        <v>37.503582860233</v>
       </c>
       <c r="R21">
-        <v>573.1956145830599</v>
+        <v>225.021497161398</v>
       </c>
       <c r="S21">
-        <v>0.09205147780846804</v>
+        <v>0.06509475791339643</v>
       </c>
       <c r="T21">
-        <v>0.08710632538664288</v>
+        <v>0.05617771864369422</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H22">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I22">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J22">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N22">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O22">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P22">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q22">
-        <v>194.81152813149</v>
+        <v>68.65316366889883</v>
       </c>
       <c r="R22">
-        <v>1168.86916878894</v>
+        <v>411.918982013393</v>
       </c>
       <c r="S22">
-        <v>0.1877127661383847</v>
+        <v>0.1191609101901148</v>
       </c>
       <c r="T22">
-        <v>0.1776285365075667</v>
+        <v>0.1028375909300237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H23">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I23">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J23">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N23">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O23">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P23">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q23">
-        <v>80.90789114355749</v>
+        <v>34.19346493041375</v>
       </c>
       <c r="R23">
-        <v>323.63156457423</v>
+        <v>136.773859721655</v>
       </c>
       <c r="S23">
-        <v>0.07795967823182195</v>
+        <v>0.05934940483314839</v>
       </c>
       <c r="T23">
-        <v>0.04918103986140358</v>
+        <v>0.03414626382893585</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H24">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I24">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J24">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N24">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O24">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P24">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q24">
-        <v>27.93543606358499</v>
+        <v>14.4669108393505</v>
       </c>
       <c r="R24">
-        <v>167.61261638151</v>
+        <v>86.80146503610301</v>
       </c>
       <c r="S24">
-        <v>0.02691749316415272</v>
+        <v>0.02511013580627162</v>
       </c>
       <c r="T24">
-        <v>0.02547144243602495</v>
+        <v>0.0216704107926235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.124215</v>
+        <v>1.2264845</v>
       </c>
       <c r="H25">
-        <v>6.248429999999999</v>
+        <v>2.452969</v>
       </c>
       <c r="I25">
-        <v>0.6451241551396172</v>
+        <v>0.415463347133357</v>
       </c>
       <c r="J25">
-        <v>0.5716262535139833</v>
+        <v>0.3345587914378054</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N25">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O25">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P25">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q25">
-        <v>223.447084114095</v>
+        <v>70.69017167720834</v>
       </c>
       <c r="R25">
-        <v>1340.68250468457</v>
+        <v>424.14103006325</v>
       </c>
       <c r="S25">
-        <v>0.2153048674629904</v>
+        <v>0.1226965335374286</v>
       </c>
       <c r="T25">
-        <v>0.2037383460761126</v>
+        <v>0.1058888850741654</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H26">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I26">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J26">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N26">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O26">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P26">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q26">
-        <v>1.461681568144</v>
+        <v>6.281784161875666</v>
       </c>
       <c r="R26">
-        <v>8.770089408864001</v>
+        <v>37.690704971254</v>
       </c>
       <c r="S26">
-        <v>0.001408419168010474</v>
+        <v>0.01090325745157256</v>
       </c>
       <c r="T26">
-        <v>0.001332756640635043</v>
+        <v>0.009409669058591733</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H27">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I27">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J27">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P27">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q27">
-        <v>2.978226761962667</v>
+        <v>17.00141099859066</v>
       </c>
       <c r="R27">
-        <v>26.804040857664</v>
+        <v>153.012698987316</v>
       </c>
       <c r="S27">
-        <v>0.00286970277907804</v>
+        <v>0.02950925348289614</v>
       </c>
       <c r="T27">
-        <v>0.004073306643008557</v>
+        <v>0.03820036956938496</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H28">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I28">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J28">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N28">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O28">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P28">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q28">
-        <v>6.07324506879289</v>
+        <v>31.12237719362289</v>
       </c>
       <c r="R28">
-        <v>54.659205619136</v>
+        <v>280.101394742606</v>
       </c>
       <c r="S28">
-        <v>0.005851941321100598</v>
+        <v>0.05401893511503571</v>
       </c>
       <c r="T28">
-        <v>0.008306348529025519</v>
+        <v>0.06992868478814759</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H29">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I29">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J29">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N29">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O29">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P29">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q29">
-        <v>2.522301711952</v>
+        <v>15.500843023835</v>
       </c>
       <c r="R29">
-        <v>15.133810271712</v>
+        <v>93.00505814300999</v>
       </c>
       <c r="S29">
-        <v>0.002430391239816778</v>
+        <v>0.02690472608578471</v>
       </c>
       <c r="T29">
-        <v>0.002299826740346493</v>
+        <v>0.02321916818929931</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H30">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I30">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J30">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N30">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O30">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P30">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q30">
-        <v>0.8708865997048889</v>
+        <v>6.558250660380667</v>
       </c>
       <c r="R30">
-        <v>7.837979397344001</v>
+        <v>59.024255943426</v>
       </c>
       <c r="S30">
-        <v>0.0008391522523919464</v>
+        <v>0.01138311879864481</v>
       </c>
       <c r="T30">
-        <v>0.001191107479521576</v>
+        <v>0.01473569452417637</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.09739733333333334</v>
+        <v>0.5559993333333333</v>
       </c>
       <c r="H31">
-        <v>0.292192</v>
+        <v>1.667998</v>
       </c>
       <c r="I31">
-        <v>0.02011173122833043</v>
+        <v>0.1883410218641831</v>
       </c>
       <c r="J31">
-        <v>0.02673065366288137</v>
+        <v>0.2274971249129836</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N31">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O31">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P31">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q31">
-        <v>6.965957891445334</v>
+        <v>32.04580924238888</v>
       </c>
       <c r="R31">
-        <v>62.69362102300801</v>
+        <v>288.4122831815</v>
       </c>
       <c r="S31">
-        <v>0.006712124467932597</v>
+        <v>0.05562173093024922</v>
       </c>
       <c r="T31">
-        <v>0.009527307630344182</v>
+        <v>0.07200353878338363</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H32">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I32">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J32">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N32">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O32">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P32">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q32">
-        <v>7.332149560967</v>
+        <v>3.309547642947666</v>
       </c>
       <c r="R32">
-        <v>43.992897365802</v>
+        <v>19.857285857686</v>
       </c>
       <c r="S32">
-        <v>0.007064972432742713</v>
+        <v>0.00574436323653136</v>
       </c>
       <c r="T32">
-        <v>0.006685430828765424</v>
+        <v>0.004957468650830133</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H33">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I33">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J33">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P33">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q33">
-        <v>14.93950838616133</v>
+        <v>8.957165392382667</v>
       </c>
       <c r="R33">
-        <v>134.455575475452</v>
+        <v>80.614488531444</v>
       </c>
       <c r="S33">
-        <v>0.01439512574441243</v>
+        <v>0.01554690161151658</v>
       </c>
       <c r="T33">
-        <v>0.02043269489410217</v>
+        <v>0.02012580181206648</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H34">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I34">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J34">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N34">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O34">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P34">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q34">
-        <v>30.46487151188311</v>
+        <v>16.39677318256155</v>
       </c>
       <c r="R34">
-        <v>274.183843606948</v>
+        <v>147.570958643054</v>
       </c>
       <c r="S34">
-        <v>0.02935475819319171</v>
+        <v>0.02845978702508115</v>
       </c>
       <c r="T34">
-        <v>0.04166666054198567</v>
+        <v>0.03684181244551728</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H35">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I35">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J35">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N35">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O35">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P35">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q35">
-        <v>12.652477662011</v>
+        <v>8.166593625514999</v>
       </c>
       <c r="R35">
-        <v>75.914865972066</v>
+        <v>48.99956175308999</v>
       </c>
       <c r="S35">
-        <v>0.01219143242301942</v>
+        <v>0.01417471064061111</v>
       </c>
       <c r="T35">
-        <v>0.01153648919986275</v>
+        <v>0.01223298053098914</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H36">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I36">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J36">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N36">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O36">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P36">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q36">
-        <v>4.368578587049111</v>
+        <v>3.455203562492667</v>
       </c>
       <c r="R36">
-        <v>39.317207283442</v>
+        <v>31.096832062434</v>
       </c>
       <c r="S36">
-        <v>0.004209391397589223</v>
+        <v>0.005997177397161559</v>
       </c>
       <c r="T36">
-        <v>0.005974884252065942</v>
+        <v>0.007763476398259929</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.4885686666666667</v>
+        <v>0.2929273333333333</v>
       </c>
       <c r="H37">
-        <v>1.465706</v>
+        <v>0.878782</v>
       </c>
       <c r="I37">
-        <v>0.1008853258533816</v>
+        <v>0.09922715727228126</v>
       </c>
       <c r="J37">
-        <v>0.1340874474920846</v>
+        <v>0.1198564856943962</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N37">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O37">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P37">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q37">
-        <v>34.94293573143267</v>
+        <v>16.88328183705556</v>
       </c>
       <c r="R37">
-        <v>314.486421582894</v>
+        <v>151.9495365335</v>
       </c>
       <c r="S37">
-        <v>0.03366964566242612</v>
+        <v>0.02930421736137949</v>
       </c>
       <c r="T37">
-        <v>0.04779128777530271</v>
+        <v>0.03793494585673331</v>
       </c>
     </row>
   </sheetData>
